--- a/data/trans_orig/Q5417-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C5A75F-06A1-41C5-8B31-532246692B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A1446A-B150-4D48-A51F-B555385C1653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8282255-1DF9-4AA1-BDCD-4E9087C3198D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A47881A3-0FAF-440E-A867-A69DF6E76647}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="539">
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -530,25 +530,25 @@
     <t>4,96%</t>
   </si>
   <si>
-    <t>14,74%</t>
+    <t>16,59%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>22,52%</t>
+    <t>22,19%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>10,39%</t>
+    <t>9,02%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>77,48%</t>
+    <t>77,81%</t>
   </si>
   <si>
     <t>90,86%</t>
@@ -560,1120 +560,1102 @@
     <t>92,95%</t>
   </si>
   <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8686109E-5C63-4753-91A2-1848935B4BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DEFBE3-B32A-43C6-B2DF-394FCF623AD4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3760,7 +3742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E718426F-4D00-45F4-A510-59F5118B1EC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61755357-495E-4239-8B04-231CC0B750C3}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4073,7 +4055,7 @@
         <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4518,10 +4500,10 @@
         <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4530,10 +4512,10 @@
         <v>21776</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>219</v>
@@ -4673,10 +4655,10 @@
         <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4685,13 +4667,13 @@
         <v>5611</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4688,13 @@
         <v>2269</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4721,13 +4703,13 @@
         <v>2030</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4775,10 +4757,10 @@
         <v>243</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -4787,13 +4769,13 @@
         <v>6440</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4790,13 @@
         <v>98144</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>120</v>
@@ -4823,13 +4805,13 @@
         <v>130124</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>206</v>
@@ -4838,13 +4820,13 @@
         <v>228268</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,7 +4900,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -4930,10 +4912,10 @@
         <v>256</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>257</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -4948,7 +4930,7 @@
         <v>258</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,10 +4960,10 @@
         <v>4348</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>261</v>
@@ -5020,7 +5002,7 @@
         <v>265</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -5029,13 +5011,13 @@
         <v>11168</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -5044,10 +5026,10 @@
         <v>15152</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>270</v>
@@ -5187,10 +5169,10 @@
         <v>281</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -5199,13 +5181,13 @@
         <v>21794</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5202,13 @@
         <v>4353</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -5235,13 +5217,13 @@
         <v>14023</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>132</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>290</v>
+        <v>139</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -5250,13 +5232,13 @@
         <v>18376</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,10 +5256,10 @@
         <v>200</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H31" s="7">
         <v>34</v>
@@ -5286,13 +5268,13 @@
         <v>37005</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>295</v>
+        <v>183</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M31" s="7">
         <v>48</v>
@@ -5304,10 +5286,10 @@
         <v>159</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>297</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5304,13 @@
         <v>533169</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>299</v>
+        <v>194</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="H32" s="7">
         <v>635</v>
@@ -5337,13 +5319,13 @@
         <v>677401</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>296</v>
       </c>
       <c r="M32" s="7">
         <v>1115</v>
@@ -5352,13 +5334,13 @@
         <v>1210570</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,7 +5417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F21EB95-0BC7-489F-AAFB-248FF5AB47EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B646621-4BCA-4B77-A636-E55587A76864}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5452,7 +5434,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5580,7 +5562,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5595,7 +5577,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5592,13 @@
         <v>1843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5631,7 +5613,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5640,13 +5622,13 @@
         <v>1843</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,7 +5664,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5697,7 +5679,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,10 +5694,10 @@
         <v>19845</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>19</v>
@@ -5730,7 +5712,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>21</v>
@@ -5742,10 +5724,10 @@
         <v>43284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>19</v>
@@ -5822,7 +5804,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5831,13 +5813,13 @@
         <v>2388</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -5846,13 +5828,13 @@
         <v>4172</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>321</v>
+        <v>186</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,7 +5855,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5882,13 +5864,13 @@
         <v>969</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5903,7 +5885,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,10 +5903,10 @@
         <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5933,13 +5915,13 @@
         <v>6940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -5951,10 +5933,10 @@
         <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5951,13 @@
         <v>110096</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H12" s="7">
         <v>126</v>
@@ -5987,10 +5969,10 @@
         <v>150</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M12" s="7">
         <v>244</v>
@@ -5999,13 +5981,13 @@
         <v>249750</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,7 +6061,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>339</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6088,13 +6070,13 @@
         <v>4530</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -6103,13 +6085,13 @@
         <v>5441</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,10 +6109,10 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -6139,13 +6121,13 @@
         <v>1187</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>348</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -6154,13 +6136,13 @@
         <v>3750</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6157,13 @@
         <v>2574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6190,13 +6172,13 @@
         <v>4014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6205,13 +6187,13 @@
         <v>6587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>56</v>
+        <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>357</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6208,13 @@
         <v>158892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>175</v>
@@ -6241,13 +6223,13 @@
         <v>209433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>343</v>
@@ -6256,13 +6238,13 @@
         <v>368325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,7 +6318,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6345,13 +6327,13 @@
         <v>2618</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6366,7 +6348,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>366</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6369,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6411,13 +6393,13 @@
         <v>809</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6414,13 @@
         <v>890</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>369</v>
+        <v>244</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -6447,13 +6429,13 @@
         <v>13411</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -6462,13 +6444,13 @@
         <v>14301</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>290</v>
+        <v>365</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,10 +6465,10 @@
         <v>113335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -6498,13 +6480,13 @@
         <v>126567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>217</v>
@@ -6513,13 +6495,13 @@
         <v>239902</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,7 +6605,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6620,13 @@
         <v>898</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6659,7 +6641,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>386</v>
+        <v>38</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -6668,13 +6650,13 @@
         <v>3364</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6671,13 @@
         <v>4382</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -6704,13 +6686,13 @@
         <v>7915</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>204</v>
+        <v>384</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -6722,10 +6704,10 @@
         <v>203</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6743,10 +6725,10 @@
         <v>95</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="H27" s="7">
         <v>190</v>
@@ -6755,13 +6737,13 @@
         <v>232399</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="M27" s="7">
         <v>375</v>
@@ -6770,13 +6752,13 @@
         <v>401738</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>254</v>
+        <v>392</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6826,13 @@
         <v>2696</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -6859,13 +6841,13 @@
         <v>9535</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>407</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -6874,13 +6856,13 @@
         <v>12232</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>107</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,10 +6880,10 @@
         <v>110</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -6910,13 +6892,13 @@
         <v>4623</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>342</v>
+        <v>405</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -6928,10 +6910,10 @@
         <v>130</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>414</v>
+        <v>257</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>239</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,10 +6931,10 @@
         <v>89</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -6961,13 +6943,13 @@
         <v>32280</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -6982,7 +6964,7 @@
         <v>411</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +6979,13 @@
         <v>571506</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>420</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H32" s="7">
         <v>618</v>
@@ -7012,13 +6994,13 @@
         <v>731493</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="M32" s="7">
         <v>1223</v>
@@ -7027,13 +7009,13 @@
         <v>1302999</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,7 +7092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA39B53-590B-4F10-98D8-47964A151756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13260042-915D-475A-8FE2-6DA1B02AEDFB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7127,7 +7109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7234,13 +7216,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>430</v>
+        <v>206</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7255,7 +7237,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -7264,13 +7246,13 @@
         <v>374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>286</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7282,13 @@
         <v>543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7315,13 +7297,13 @@
         <v>543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7333,13 @@
         <v>2315</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>115</v>
+        <v>429</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -7366,13 +7348,13 @@
         <v>2315</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>440</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,10 +7369,10 @@
         <v>29290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>19</v>
@@ -7405,10 +7387,10 @@
         <v>93</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M7" s="7">
         <v>151</v>
@@ -7417,13 +7399,13 @@
         <v>71853</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>446</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7473,13 @@
         <v>721</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>289</v>
+        <v>439</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -7509,10 +7491,10 @@
         <v>130</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>141</v>
+        <v>440</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -7521,13 +7503,13 @@
         <v>1956</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>448</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>208</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,10 +7542,10 @@
         <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -7572,13 +7554,13 @@
         <v>1993</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7575,13 @@
         <v>3750</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>407</v>
+        <v>110</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -7608,13 +7590,13 @@
         <v>9201</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -7623,13 +7605,13 @@
         <v>12951</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,10 +7629,10 @@
         <v>191</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>461</v>
+        <v>324</v>
       </c>
       <c r="H12" s="7">
         <v>304</v>
@@ -7659,13 +7641,13 @@
         <v>134413</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>304</v>
+        <v>455</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M12" s="7">
         <v>501</v>
@@ -7674,13 +7656,13 @@
         <v>254352</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7730,13 @@
         <v>1180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>461</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>466</v>
+        <v>340</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -7763,13 +7745,13 @@
         <v>4371</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -7778,13 +7760,13 @@
         <v>5551</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7781,13 @@
         <v>1643</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -7814,13 +7796,13 @@
         <v>2804</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>448</v>
+        <v>136</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>205</v>
+        <v>446</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -7832,10 +7814,10 @@
         <v>262</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>108</v>
+        <v>470</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7832,13 @@
         <v>4947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>475</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -7865,13 +7847,13 @@
         <v>11955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -7880,13 +7862,13 @@
         <v>16902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>482</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7883,13 @@
         <v>166077</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
@@ -7916,13 +7898,13 @@
         <v>223765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>482</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
         <v>658</v>
@@ -7931,13 +7913,13 @@
         <v>389842</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>489</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,7 +7993,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -8020,13 +8002,13 @@
         <v>3593</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>487</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>183</v>
+        <v>489</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -8038,10 +8020,10 @@
         <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>490</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>57</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,7 +8044,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -8071,13 +8053,13 @@
         <v>1213</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -8086,13 +8068,13 @@
         <v>1213</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8089,13 @@
         <v>4243</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -8125,10 +8107,10 @@
         <v>495</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>265</v>
+        <v>496</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -8137,13 +8119,13 @@
         <v>11501</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>486</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8140,13 @@
         <v>143947</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H22" s="7">
         <v>271</v>
@@ -8176,7 +8158,7 @@
         <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>502</v>
@@ -8188,13 +8170,13 @@
         <v>412998</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,7 +8250,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -8283,7 +8265,7 @@
         <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>506</v>
+        <v>269</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -8292,13 +8274,13 @@
         <v>3323</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8295,13 @@
         <v>1631</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>508</v>
+        <v>380</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>186</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -8328,13 +8310,13 @@
         <v>1304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -8346,10 +8328,10 @@
         <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8370,7 +8352,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>513</v>
+        <v>213</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -8379,13 +8361,13 @@
         <v>12766</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -8394,13 +8376,13 @@
         <v>13432</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>516</v>
+        <v>440</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>513</v>
+        <v>385</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8397,13 @@
         <v>217947</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="H27" s="7">
         <v>496</v>
@@ -8430,13 +8412,13 @@
         <v>292160</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>522</v>
+        <v>437</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="M27" s="7">
         <v>819</v>
@@ -8445,13 +8427,13 @@
         <v>510107</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>525</v>
+        <v>277</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,13 +8501,13 @@
         <v>2275</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -8534,13 +8516,13 @@
         <v>12522</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>406</v>
+        <v>524</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -8549,13 +8531,13 @@
         <v>14797</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>529</v>
+        <v>234</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>530</v>
+        <v>402</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +8552,13 @@
         <v>3274</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>414</v>
+        <v>525</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>531</v>
+        <v>396</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -8585,13 +8567,13 @@
         <v>7856</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>369</v>
+        <v>244</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>532</v>
+        <v>182</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -8600,13 +8582,13 @@
         <v>11130</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>323</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>534</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8603,13 @@
         <v>13606</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>80</v>
+        <v>528</v>
       </c>
       <c r="H31" s="7">
         <v>78</v>
@@ -8636,13 +8618,13 @@
         <v>43496</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>188</v>
+        <v>375</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="M31" s="7">
         <v>98</v>
@@ -8654,10 +8636,10 @@
         <v>29</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8654,13 @@
         <v>677198</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H32" s="7">
         <v>1592</v>
@@ -8687,13 +8669,13 @@
         <v>961952</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>274</v>
+        <v>536</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>331</v>
+        <v>537</v>
       </c>
       <c r="M32" s="7">
         <v>2588</v>
@@ -8702,13 +8684,13 @@
         <v>1639150</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>463</v>
+        <v>277</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>544</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5417-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A1446A-B150-4D48-A51F-B555385C1653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C2B292-6928-4183-81A8-9C4BBCACE3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A47881A3-0FAF-440E-A867-A69DF6E76647}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{18C9302C-B640-4467-B9A2-C3C1A502CB90}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="545">
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Completamente incapaz</t>
@@ -113,7 +113,7 @@
     <t>96,46%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,02%</t>
@@ -122,1507 +122,1525 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>6,58%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>95,31%</t>
   </si>
   <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -2067,7 +2085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DEFBE3-B32A-43C6-B2DF-394FCF623AD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0247DA-9F4A-4E80-A58D-CB9FEDED343B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2968,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2983,7 +3001,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2998,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +3037,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3028,13 +3046,13 @@
         <v>897</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3043,13 +3061,13 @@
         <v>897</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3082,13 @@
         <v>966</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -3079,13 +3097,13 @@
         <v>7646</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -3094,13 +3112,13 @@
         <v>8612</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,10 +3133,10 @@
         <v>103405</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -3130,13 +3148,13 @@
         <v>127307</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>233</v>
@@ -3145,13 +3163,13 @@
         <v>230712</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,7 +3225,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3219,13 +3237,13 @@
         <v>838</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -3234,13 +3252,13 @@
         <v>1994</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -3249,13 +3267,13 @@
         <v>2832</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3288,13 @@
         <v>831</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3285,13 +3303,13 @@
         <v>3211</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -3300,13 +3318,13 @@
         <v>4041</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3339,13 @@
         <v>1640</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3336,13 +3354,13 @@
         <v>4162</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3351,13 +3369,13 @@
         <v>5802</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3390,13 @@
         <v>133908</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H27" s="7">
         <v>191</v>
@@ -3387,13 +3405,13 @@
         <v>199410</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M27" s="7">
         <v>343</v>
@@ -3402,13 +3420,13 @@
         <v>333319</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3494,13 @@
         <v>838</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3494,10 +3512,10 @@
         <v>56</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -3506,13 +3524,13 @@
         <v>5175</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3545,13 @@
         <v>1699</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -3542,13 +3560,13 @@
         <v>5332</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -3560,10 +3578,10 @@
         <v>52</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,10 +3596,10 @@
         <v>9359</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>139</v>
@@ -3596,10 +3614,10 @@
         <v>140</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M31" s="7">
         <v>32</v>
@@ -3608,13 +3626,13 @@
         <v>33474</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3647,13 @@
         <v>490570</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H32" s="7">
         <v>629</v>
@@ -3644,13 +3662,13 @@
         <v>643059</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>1139</v>
@@ -3659,13 +3677,13 @@
         <v>1133629</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,7 +3739,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3742,7 +3760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61755357-495E-4239-8B04-231CC0B750C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015A9563-1245-4E25-87F5-6E085AC372E6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3759,7 +3777,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3872,7 +3890,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3887,7 +3905,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3902,7 +3920,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,7 +3941,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3932,13 +3950,13 @@
         <v>2303</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3947,13 +3965,13 @@
         <v>2303</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3986,13 @@
         <v>965</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3989,7 +4007,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -3998,13 +4016,13 @@
         <v>965</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,10 +4037,10 @@
         <v>20233</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>19</v>
@@ -4034,10 +4052,10 @@
         <v>22891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>19</v>
@@ -4049,13 +4067,13 @@
         <v>43123</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,7 +4147,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4138,13 +4156,13 @@
         <v>1056</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4153,13 +4171,13 @@
         <v>2125</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4192,13 @@
         <v>2084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4189,13 +4207,13 @@
         <v>2110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4204,13 +4222,13 @@
         <v>4194</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4243,13 @@
         <v>1090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -4240,13 +4258,13 @@
         <v>6448</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -4255,13 +4273,13 @@
         <v>7538</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4294,13 @@
         <v>114107</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H12" s="7">
         <v>125</v>
@@ -4291,13 +4309,13 @@
         <v>131978</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M12" s="7">
         <v>226</v>
@@ -4306,13 +4324,13 @@
         <v>246085</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4398,13 @@
         <v>4126</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -4395,13 +4413,13 @@
         <v>5649</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -4410,13 +4428,13 @@
         <v>9776</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,7 +4455,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -4446,13 +4464,13 @@
         <v>3232</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -4461,13 +4479,13 @@
         <v>3232</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4500,13 @@
         <v>6703</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4497,13 +4515,13 @@
         <v>15073</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4512,13 +4530,13 @@
         <v>21776</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4551,13 @@
         <v>144049</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -4548,13 +4566,13 @@
         <v>167465</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>284</v>
@@ -4563,13 +4581,13 @@
         <v>311514</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4655,13 @@
         <v>1062</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4652,10 +4670,10 @@
         <v>4549</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>232</v>
@@ -4670,10 +4688,10 @@
         <v>233</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4706,13 @@
         <v>2269</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4703,13 +4721,13 @@
         <v>2030</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4718,13 +4736,13 @@
         <v>4299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4757,13 @@
         <v>2124</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -4754,13 +4772,13 @@
         <v>4316</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -4769,13 +4787,13 @@
         <v>6440</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4808,13 @@
         <v>98144</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>120</v>
@@ -4805,13 +4823,13 @@
         <v>130124</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>206</v>
@@ -4820,13 +4838,13 @@
         <v>228268</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,7 +4900,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4894,13 +4912,13 @@
         <v>992</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -4915,7 +4933,7 @@
         <v>257</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -4927,7 +4945,7 @@
         <v>33</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>259</v>
@@ -4978,10 +4996,10 @@
         <v>262</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>263</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +5014,13 @@
         <v>3984</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -5011,13 +5029,13 @@
         <v>11168</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -5026,13 +5044,13 @@
         <v>15152</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5065,13 @@
         <v>156637</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H27" s="7">
         <v>213</v>
@@ -5062,13 +5080,13 @@
         <v>224943</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M27" s="7">
         <v>355</v>
@@ -5077,13 +5095,13 @@
         <v>381580</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>279</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,10 +5172,10 @@
         <v>51</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -5166,13 +5184,13 @@
         <v>14546</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -5181,13 +5199,13 @@
         <v>21794</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>262</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5220,13 @@
         <v>4353</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -5217,13 +5235,13 @@
         <v>14023</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>139</v>
+        <v>286</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -5232,13 +5250,13 @@
         <v>18376</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>289</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5271,13 @@
         <v>14866</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>34</v>
@@ -5268,13 +5286,13 @@
         <v>37005</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M31" s="7">
         <v>48</v>
@@ -5283,13 +5301,13 @@
         <v>51871</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,10 +5325,10 @@
         <v>293</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="H32" s="7">
         <v>635</v>
@@ -5319,13 +5337,13 @@
         <v>677401</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M32" s="7">
         <v>1115</v>
@@ -5334,13 +5352,13 @@
         <v>1210570</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,7 +5414,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5417,7 +5435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B646621-4BCA-4B77-A636-E55587A76864}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B091E98D-F2E6-4336-8550-74D7A4DCB4B8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5434,7 +5452,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5547,7 +5565,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5562,7 +5580,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5577,7 +5595,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5610,13 @@
         <v>1843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5613,7 +5631,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5622,13 +5640,13 @@
         <v>1843</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,7 +5667,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5664,7 +5682,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5679,7 +5697,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,10 +5712,10 @@
         <v>19845</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>19</v>
@@ -5712,7 +5730,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>21</v>
@@ -5724,10 +5742,10 @@
         <v>43284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>19</v>
@@ -5804,7 +5822,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5813,13 +5831,13 @@
         <v>2388</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>313</v>
+        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -5828,13 +5846,13 @@
         <v>4172</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>186</v>
+        <v>316</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,7 +5873,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5864,13 +5882,13 @@
         <v>969</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5885,7 +5903,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5918,13 @@
         <v>2364</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5915,13 +5933,13 @@
         <v>6940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -5930,13 +5948,13 @@
         <v>9304</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +5969,13 @@
         <v>110096</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H12" s="7">
         <v>126</v>
@@ -5966,28 +5984,28 @@
         <v>139654</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M12" s="7">
         <v>244</v>
       </c>
       <c r="N12" s="7">
-        <v>249750</v>
+        <v>249751</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,7 +6047,7 @@
         <v>259</v>
       </c>
       <c r="N13" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>21</v>
@@ -6055,13 +6073,13 @@
         <v>912</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6070,13 +6088,13 @@
         <v>4530</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -6085,13 +6103,13 @@
         <v>5441</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>334</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,10 +6127,10 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -6121,13 +6139,13 @@
         <v>1187</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>343</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -6136,13 +6154,13 @@
         <v>3750</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6175,13 @@
         <v>2574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6172,13 +6190,13 @@
         <v>4014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6187,13 +6205,13 @@
         <v>6587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6226,13 @@
         <v>158892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H17" s="7">
         <v>175</v>
@@ -6223,13 +6241,13 @@
         <v>209433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
         <v>343</v>
@@ -6238,13 +6256,13 @@
         <v>368325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,7 +6336,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6327,13 +6345,13 @@
         <v>2618</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>357</v>
+        <v>65</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6342,13 +6360,13 @@
         <v>2618</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,7 +6387,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6384,7 +6402,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6393,13 +6411,13 @@
         <v>809</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6432,13 @@
         <v>890</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -6429,13 +6447,13 @@
         <v>13411</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -6444,13 +6462,13 @@
         <v>14301</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,10 +6483,10 @@
         <v>113335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>375</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -6480,13 +6498,13 @@
         <v>126567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>217</v>
@@ -6495,13 +6513,13 @@
         <v>239902</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,7 +6575,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6575,7 +6593,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6590,7 +6608,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6605,7 +6623,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,13 +6638,13 @@
         <v>898</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>375</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6635,13 +6653,13 @@
         <v>2467</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>38</v>
+        <v>383</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -6650,13 +6668,13 @@
         <v>3364</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,13 +6689,13 @@
         <v>4382</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -6686,13 +6704,13 @@
         <v>7915</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -6701,13 +6719,13 @@
         <v>12298</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6722,13 +6740,13 @@
         <v>169338</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>95</v>
+        <v>393</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>387</v>
+        <v>170</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="H27" s="7">
         <v>190</v>
@@ -6737,13 +6755,13 @@
         <v>232399</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="M27" s="7">
         <v>375</v>
@@ -6752,13 +6770,13 @@
         <v>401738</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,13 +6844,13 @@
         <v>2696</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -6841,13 +6859,13 @@
         <v>9535</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>336</v>
+        <v>403</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -6856,13 +6874,13 @@
         <v>12232</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,13 +6895,13 @@
         <v>6915</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>403</v>
+        <v>87</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -6892,13 +6910,13 @@
         <v>4623</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -6907,13 +6925,13 @@
         <v>11538</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,13 +6946,13 @@
         <v>10210</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>102</v>
+        <v>413</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -6943,13 +6961,13 @@
         <v>32280</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>409</v>
+        <v>114</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -6958,13 +6976,13 @@
         <v>42491</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>103</v>
+        <v>417</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>411</v>
+        <v>233</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,13 +6997,13 @@
         <v>571506</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H32" s="7">
         <v>618</v>
@@ -6994,13 +7012,13 @@
         <v>731493</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="M32" s="7">
         <v>1223</v>
@@ -7009,13 +7027,13 @@
         <v>1302999</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,7 +7089,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -7092,7 +7110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13260042-915D-475A-8FE2-6DA1B02AEDFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8169C75-2405-47D5-9175-4F8BA21CECE7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7109,7 +7127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7216,13 +7234,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>428</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7237,7 +7255,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -7246,13 +7264,13 @@
         <v>374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>423</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,7 +7291,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7282,13 +7300,13 @@
         <v>543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7297,13 +7315,13 @@
         <v>543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,7 +7342,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -7333,13 +7351,13 @@
         <v>2315</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -7348,13 +7366,13 @@
         <v>2315</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,10 +7387,10 @@
         <v>29290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>19</v>
@@ -7384,13 +7402,13 @@
         <v>42563</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="M7" s="7">
         <v>151</v>
@@ -7399,13 +7417,13 @@
         <v>71853</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,13 +7491,13 @@
         <v>721</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>439</v>
+        <v>143</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -7488,13 +7506,13 @@
         <v>1235</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>377</v>
+        <v>446</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>440</v>
+        <v>281</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -7503,13 +7521,13 @@
         <v>1956</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>136</v>
+        <v>447</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7530,7 +7548,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -7539,13 +7557,13 @@
         <v>1993</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -7554,13 +7572,13 @@
         <v>1993</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,13 +7593,13 @@
         <v>3750</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -7590,13 +7608,13 @@
         <v>9201</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>448</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -7605,13 +7623,13 @@
         <v>12951</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,13 +7644,13 @@
         <v>119938</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>324</v>
+        <v>462</v>
       </c>
       <c r="H12" s="7">
         <v>304</v>
@@ -7641,13 +7659,13 @@
         <v>134413</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="M12" s="7">
         <v>501</v>
@@ -7656,13 +7674,13 @@
         <v>254352</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,13 +7748,13 @@
         <v>1180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>461</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>340</v>
+        <v>469</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -7745,13 +7763,13 @@
         <v>4371</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>462</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -7760,13 +7778,13 @@
         <v>5551</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>464</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>466</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,13 +7799,13 @@
         <v>1643</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -7796,13 +7814,13 @@
         <v>2804</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>469</v>
+        <v>201</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>136</v>
+        <v>447</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -7814,10 +7832,10 @@
         <v>262</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>470</v>
+        <v>181</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,13 +7850,13 @@
         <v>4947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -7847,13 +7865,13 @@
         <v>11955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -7862,13 +7880,13 @@
         <v>16902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,13 +7901,13 @@
         <v>166077</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
@@ -7898,13 +7916,13 @@
         <v>223765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M17" s="7">
         <v>658</v>
@@ -7913,13 +7931,13 @@
         <v>389842</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,7 +8011,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>486</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -8002,13 +8020,13 @@
         <v>3593</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -8017,13 +8035,13 @@
         <v>3593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,7 +8062,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>486</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -8053,13 +8071,13 @@
         <v>1213</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -8068,13 +8086,13 @@
         <v>1213</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,13 +8107,13 @@
         <v>4243</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>494</v>
+        <v>175</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>498</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>448</v>
+        <v>265</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -8104,13 +8122,13 @@
         <v>7259</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>495</v>
+        <v>277</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -8119,13 +8137,13 @@
         <v>11501</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>486</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,13 +8158,13 @@
         <v>143947</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H22" s="7">
         <v>271</v>
@@ -8158,10 +8176,10 @@
         <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M22" s="7">
         <v>459</v>
@@ -8170,13 +8188,13 @@
         <v>412998</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8232,7 +8250,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8250,7 +8268,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -8262,10 +8280,10 @@
         <v>262</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>269</v>
+        <v>57</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -8274,13 +8292,13 @@
         <v>3323</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>464</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8295,13 +8313,13 @@
         <v>1631</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>380</v>
+        <v>508</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -8310,10 +8328,10 @@
         <v>1304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>256</v>
@@ -8325,13 +8343,13 @@
         <v>2935</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,13 +8364,13 @@
         <v>666</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>213</v>
+        <v>513</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -8361,13 +8379,13 @@
         <v>12766</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -8376,13 +8394,13 @@
         <v>13432</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>440</v>
+        <v>281</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>517</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8397,13 +8415,13 @@
         <v>217947</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H27" s="7">
         <v>496</v>
@@ -8412,13 +8430,13 @@
         <v>292160</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="M27" s="7">
         <v>819</v>
@@ -8427,13 +8445,13 @@
         <v>510107</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,13 +8519,13 @@
         <v>2275</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>334</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -8516,13 +8534,13 @@
         <v>12522</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -8531,13 +8549,13 @@
         <v>14797</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>234</v>
+        <v>528</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>464</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8552,13 +8570,13 @@
         <v>3274</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -8567,13 +8585,13 @@
         <v>7856</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>182</v>
+        <v>530</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>464</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -8582,13 +8600,13 @@
         <v>11130</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8603,13 +8621,13 @@
         <v>13606</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>137</v>
+        <v>533</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H31" s="7">
         <v>78</v>
@@ -8618,13 +8636,13 @@
         <v>43496</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>375</v>
+        <v>291</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="M31" s="7">
         <v>98</v>
@@ -8633,13 +8651,13 @@
         <v>57102</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8654,13 +8672,13 @@
         <v>677198</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H32" s="7">
         <v>1592</v>
@@ -8669,13 +8687,13 @@
         <v>961952</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="M32" s="7">
         <v>2588</v>
@@ -8684,13 +8702,13 @@
         <v>1639150</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8746,7 +8764,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5417-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C2B292-6928-4183-81A8-9C4BBCACE3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E37611-CD65-46F3-8AF6-1C767ADDE57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{18C9302C-B640-4467-B9A2-C3C1A502CB90}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60775722-E4CA-4374-9317-1FDF5A2C7DC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -122,1558 +122,1558 @@
     <t>1,87%</t>
   </si>
   <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>97,25%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>98,12%</t>
   </si>
   <si>
     <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0247DA-9F4A-4E80-A58D-CB9FEDED343B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1857D5D0-1042-4D1D-8939-091CF25E33E8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2986,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,7 +3037,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3046,13 +3046,13 @@
         <v>897</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3061,13 +3061,13 @@
         <v>897</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3082,13 @@
         <v>966</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -3097,13 +3097,13 @@
         <v>7646</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -3112,13 +3112,13 @@
         <v>8612</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,10 +3133,10 @@
         <v>103405</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -3148,13 +3148,13 @@
         <v>127307</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>233</v>
@@ -3163,13 +3163,13 @@
         <v>230712</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,7 +3225,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3237,13 +3237,13 @@
         <v>838</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -3252,13 +3252,13 @@
         <v>1994</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -3267,13 +3267,13 @@
         <v>2832</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3288,13 @@
         <v>831</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3303,13 +3303,13 @@
         <v>3211</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -3318,13 +3318,13 @@
         <v>4041</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3339,13 @@
         <v>1640</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3354,13 +3354,13 @@
         <v>4162</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3369,13 +3369,13 @@
         <v>5802</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3390,13 @@
         <v>133908</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H27" s="7">
         <v>191</v>
@@ -3405,13 +3405,13 @@
         <v>199410</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M27" s="7">
         <v>343</v>
@@ -3420,13 +3420,13 @@
         <v>333319</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3494,13 @@
         <v>838</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3512,10 +3512,10 @@
         <v>56</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -3524,13 +3524,13 @@
         <v>5175</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3545,13 @@
         <v>1699</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -3560,13 +3560,13 @@
         <v>5332</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -3578,10 +3578,10 @@
         <v>52</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,10 +3596,10 @@
         <v>9359</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>139</v>
@@ -3614,10 +3614,10 @@
         <v>140</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M31" s="7">
         <v>32</v>
@@ -3626,13 +3626,13 @@
         <v>33474</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3647,13 @@
         <v>490570</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H32" s="7">
         <v>629</v>
@@ -3662,13 +3662,13 @@
         <v>643059</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>1139</v>
@@ -3677,13 +3677,13 @@
         <v>1133629</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,7 +3739,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3760,7 +3760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015A9563-1245-4E25-87F5-6E085AC372E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A3A0F7-5AD0-493C-8E35-AC0E8A4DE1FB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3777,7 +3777,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3890,7 +3890,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,7 +3941,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3950,13 +3950,13 @@
         <v>2303</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3965,13 +3965,13 @@
         <v>2303</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3986,13 @@
         <v>965</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4007,7 +4007,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4016,13 +4016,13 @@
         <v>965</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,10 +4037,10 @@
         <v>20233</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>19</v>
@@ -4052,10 +4052,10 @@
         <v>22891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>19</v>
@@ -4067,13 +4067,13 @@
         <v>43123</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,7 +4147,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4156,13 +4156,13 @@
         <v>1056</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4171,13 +4171,13 @@
         <v>2125</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4192,13 @@
         <v>2084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4207,13 +4207,13 @@
         <v>2110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4222,13 +4222,13 @@
         <v>4194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4243,13 @@
         <v>1090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -4258,13 +4258,13 @@
         <v>6448</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -4273,13 +4273,13 @@
         <v>7538</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4294,13 @@
         <v>114107</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H12" s="7">
         <v>125</v>
@@ -4309,13 +4309,13 @@
         <v>131978</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M12" s="7">
         <v>226</v>
@@ -4324,13 +4324,13 @@
         <v>246085</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4398,13 @@
         <v>4126</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -4413,13 +4413,13 @@
         <v>5649</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -4428,13 +4428,13 @@
         <v>9776</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,7 +4455,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -4464,13 +4464,13 @@
         <v>3232</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -4479,13 +4479,13 @@
         <v>3232</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4500,13 @@
         <v>6703</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4515,13 +4515,13 @@
         <v>15073</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4530,13 +4530,13 @@
         <v>21776</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4551,13 @@
         <v>144049</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -4566,13 +4566,13 @@
         <v>167465</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>284</v>
@@ -4581,13 +4581,13 @@
         <v>311514</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4655,13 @@
         <v>1062</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4670,13 +4670,13 @@
         <v>4549</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4685,13 +4685,13 @@
         <v>5611</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4706,13 @@
         <v>2269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4721,13 +4721,13 @@
         <v>2030</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4736,13 +4736,13 @@
         <v>4299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4757,13 @@
         <v>2124</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -4772,13 +4772,13 @@
         <v>4316</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -4787,13 +4787,13 @@
         <v>6440</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4808,13 @@
         <v>98144</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>120</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4912,7 +4912,7 @@
         <v>992</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
@@ -4930,10 +4930,10 @@
         <v>256</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -4945,10 +4945,10 @@
         <v>33</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>259</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,10 +4978,10 @@
         <v>4348</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>261</v>
@@ -4996,10 +4996,10 @@
         <v>262</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5014,13 @@
         <v>3984</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -5029,13 +5029,13 @@
         <v>11168</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -5044,13 +5044,13 @@
         <v>15152</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5065,13 @@
         <v>156637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H27" s="7">
         <v>213</v>
@@ -5080,13 +5080,13 @@
         <v>224943</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M27" s="7">
         <v>355</v>
@@ -5095,13 +5095,13 @@
         <v>381580</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>150</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,10 +5172,10 @@
         <v>51</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -5184,13 +5184,13 @@
         <v>14546</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -5199,13 +5199,13 @@
         <v>21794</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5220,13 @@
         <v>4353</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -5235,13 +5235,13 @@
         <v>14023</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -5250,13 +5250,13 @@
         <v>18376</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>87</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5271,13 @@
         <v>14866</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="H31" s="7">
         <v>34</v>
@@ -5286,13 +5286,13 @@
         <v>37005</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>104</v>
+        <v>295</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M31" s="7">
         <v>48</v>
@@ -5301,13 +5301,13 @@
         <v>51871</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5322,13 @@
         <v>533169</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H32" s="7">
         <v>635</v>
@@ -5337,13 +5337,13 @@
         <v>677401</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>1115</v>
@@ -5352,13 +5352,13 @@
         <v>1210570</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,7 +5414,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5435,7 +5435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B091E98D-F2E6-4336-8550-74D7A4DCB4B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEF76C7-45F0-4BDC-B3A1-595AB755246D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5452,7 +5452,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5565,7 +5565,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5610,13 @@
         <v>1843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5640,13 +5640,13 @@
         <v>1843</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,7 +5667,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,10 +5712,10 @@
         <v>19845</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>19</v>
@@ -5730,7 +5730,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>21</v>
@@ -5742,10 +5742,10 @@
         <v>43284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>19</v>
@@ -5822,7 +5822,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5831,13 +5831,13 @@
         <v>2388</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -5846,13 +5846,13 @@
         <v>4172</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,7 +5873,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5882,13 +5882,13 @@
         <v>969</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>324</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5903,7 +5903,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5918,13 @@
         <v>2364</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5933,13 +5933,13 @@
         <v>6940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -5948,13 +5948,13 @@
         <v>9304</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>323</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5969,13 @@
         <v>110096</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H12" s="7">
         <v>126</v>
@@ -5984,28 +5984,28 @@
         <v>139654</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>328</v>
+        <v>150</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M12" s="7">
         <v>244</v>
       </c>
       <c r="N12" s="7">
-        <v>249751</v>
+        <v>249750</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,7 +6047,7 @@
         <v>259</v>
       </c>
       <c r="N13" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>21</v>
@@ -6073,13 +6073,13 @@
         <v>912</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6088,13 +6088,13 @@
         <v>4530</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -6103,13 +6103,13 @@
         <v>5441</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,10 +6127,10 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -6139,13 +6139,13 @@
         <v>1187</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -6154,13 +6154,13 @@
         <v>3750</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6175,13 @@
         <v>2574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6190,13 +6190,13 @@
         <v>4014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6205,13 +6205,13 @@
         <v>6587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>351</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6226,13 @@
         <v>158892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>353</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
         <v>175</v>
@@ -6241,13 +6241,13 @@
         <v>209433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>343</v>
@@ -6256,13 +6256,13 @@
         <v>368325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>361</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,7 +6336,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6345,13 +6345,13 @@
         <v>2618</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>65</v>
+        <v>364</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6360,13 +6360,13 @@
         <v>2618</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6387,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6411,13 +6411,13 @@
         <v>809</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6432,13 @@
         <v>890</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -6447,13 +6447,13 @@
         <v>13411</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -6462,13 +6462,13 @@
         <v>14301</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>372</v>
+        <v>290</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,10 +6483,10 @@
         <v>113335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -6498,13 +6498,13 @@
         <v>126567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>217</v>
@@ -6513,13 +6513,13 @@
         <v>239902</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,7 +6575,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6593,7 +6593,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6608,7 +6608,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6623,7 +6623,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6638,13 @@
         <v>898</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>385</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6653,13 +6653,13 @@
         <v>2467</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -6668,13 +6668,13 @@
         <v>3364</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6689,13 @@
         <v>4382</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -6704,13 +6704,13 @@
         <v>7915</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>391</v>
+        <v>204</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -6719,13 +6719,13 @@
         <v>12298</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6740,13 @@
         <v>169338</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>393</v>
+        <v>95</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>170</v>
+        <v>397</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H27" s="7">
         <v>190</v>
@@ -6755,13 +6755,13 @@
         <v>232399</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M27" s="7">
         <v>375</v>
@@ -6770,13 +6770,13 @@
         <v>401738</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>398</v>
+        <v>254</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6844,13 @@
         <v>2696</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -6859,13 +6859,13 @@
         <v>9535</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>407</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -6874,13 +6874,13 @@
         <v>12232</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>406</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6895,13 @@
         <v>6915</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>87</v>
+        <v>411</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -6910,13 +6910,13 @@
         <v>4623</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>410</v>
+        <v>342</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -6925,13 +6925,13 @@
         <v>11538</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>110</v>
+        <v>414</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>411</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6946,13 @@
         <v>10210</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>412</v>
+        <v>89</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>413</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -6961,13 +6961,13 @@
         <v>32280</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>114</v>
+        <v>417</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -6976,13 +6976,13 @@
         <v>42491</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>417</v>
+        <v>103</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +6997,13 @@
         <v>571506</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H32" s="7">
         <v>618</v>
@@ -7012,13 +7012,13 @@
         <v>731493</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M32" s="7">
         <v>1223</v>
@@ -7027,13 +7027,13 @@
         <v>1302999</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,7 +7089,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -7110,7 +7110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8169C75-2405-47D5-9175-4F8BA21CECE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC067965-9825-4AA1-A8B6-2DB37E55935C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7127,7 +7127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7234,13 +7234,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -7264,13 +7264,13 @@
         <v>374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,7 +7291,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7300,13 +7300,13 @@
         <v>543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7315,13 +7315,13 @@
         <v>543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,7 +7342,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -7351,13 +7351,13 @@
         <v>2315</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>435</v>
+        <v>115</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -7366,13 +7366,13 @@
         <v>2315</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,10 +7387,10 @@
         <v>29290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>19</v>
@@ -7402,13 +7402,13 @@
         <v>42563</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M7" s="7">
         <v>151</v>
@@ -7417,13 +7417,13 @@
         <v>71853</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7491,13 @@
         <v>721</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -7506,13 +7506,13 @@
         <v>1235</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -7521,13 +7521,13 @@
         <v>1956</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>448</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,7 +7548,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -7557,13 +7557,13 @@
         <v>1993</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>449</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -7572,13 +7572,13 @@
         <v>1993</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>452</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>453</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7593,13 @@
         <v>3750</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>407</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -7608,13 +7608,13 @@
         <v>9201</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>454</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -7623,13 +7623,13 @@
         <v>12951</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7644,13 @@
         <v>119938</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H12" s="7">
         <v>304</v>
@@ -7659,13 +7659,13 @@
         <v>134413</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M12" s="7">
         <v>501</v>
@@ -7674,13 +7674,13 @@
         <v>254352</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>467</v>
+        <v>304</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7748,13 @@
         <v>1180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -7763,13 +7763,13 @@
         <v>4371</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>467</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -7778,13 +7778,13 @@
         <v>5551</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>469</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7799,13 @@
         <v>1643</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -7814,13 +7814,13 @@
         <v>2804</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>201</v>
+        <v>473</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>454</v>
+        <v>205</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -7832,10 +7832,10 @@
         <v>262</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,10 +7853,10 @@
         <v>474</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>475</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -7865,13 +7865,13 @@
         <v>11955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -7880,13 +7880,13 @@
         <v>16902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7901,13 @@
         <v>166077</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>484</v>
+        <v>120</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
@@ -7919,10 +7919,10 @@
         <v>485</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="M17" s="7">
         <v>658</v>
@@ -7931,13 +7931,13 @@
         <v>389842</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,7 +8011,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>490</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -8020,13 +8020,13 @@
         <v>3593</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>493</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -8035,13 +8035,13 @@
         <v>3593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>494</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>495</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,7 +8062,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>490</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -8071,13 +8071,13 @@
         <v>1213</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>496</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -8086,13 +8086,13 @@
         <v>1213</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8107,13 @@
         <v>4243</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>175</v>
+        <v>493</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>498</v>
+        <v>285</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>265</v>
+        <v>494</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -8122,13 +8122,13 @@
         <v>7259</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>277</v>
+        <v>495</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>499</v>
+        <v>265</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -8137,13 +8137,13 @@
         <v>11501</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8158,13 @@
         <v>143947</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
         <v>271</v>
@@ -8176,10 +8176,10 @@
         <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M22" s="7">
         <v>459</v>
@@ -8188,13 +8188,13 @@
         <v>412998</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>503</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>504</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,7 +8250,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8268,7 +8268,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -8280,10 +8280,10 @@
         <v>262</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>57</v>
+        <v>506</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -8292,13 +8292,13 @@
         <v>3323</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>203</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8319,7 +8319,7 @@
         <v>509</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>186</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -8334,7 +8334,7 @@
         <v>511</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -8343,10 +8343,10 @@
         <v>2935</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>451</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>512</v>
@@ -8364,7 +8364,7 @@
         <v>666</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
@@ -8382,10 +8382,10 @@
         <v>514</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -8394,13 +8394,13 @@
         <v>13432</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>281</v>
+        <v>516</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8415,13 @@
         <v>217947</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="H27" s="7">
         <v>496</v>
@@ -8430,10 +8430,10 @@
         <v>292160</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>523</v>
@@ -8445,13 +8445,13 @@
         <v>510107</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>275</v>
+        <v>525</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,13 +8519,13 @@
         <v>2275</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>113</v>
+        <v>343</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -8534,13 +8534,13 @@
         <v>12522</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>527</v>
+        <v>406</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -8549,13 +8549,13 @@
         <v>14797</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>336</v>
+        <v>530</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +8570,13 @@
         <v>3274</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>529</v>
+        <v>414</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>402</v>
+        <v>531</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -8585,13 +8585,13 @@
         <v>7856</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -8600,13 +8600,13 @@
         <v>11130</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>228</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8621,13 @@
         <v>13606</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>533</v>
+        <v>134</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>534</v>
+        <v>80</v>
       </c>
       <c r="H31" s="7">
         <v>78</v>
@@ -8636,13 +8636,13 @@
         <v>43496</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>291</v>
+        <v>188</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M31" s="7">
         <v>98</v>
@@ -8651,13 +8651,13 @@
         <v>57102</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8672,13 @@
         <v>677198</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H32" s="7">
         <v>1592</v>
@@ -8687,13 +8687,13 @@
         <v>961952</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>542</v>
+        <v>274</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>543</v>
+        <v>331</v>
       </c>
       <c r="M32" s="7">
         <v>2588</v>
@@ -8702,13 +8702,13 @@
         <v>1639150</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8764,7 +8764,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
